--- a/Matlab/Shapes.xlsx
+++ b/Matlab/Shapes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S3/TeP/Mecanizado/Automatic_gcode_Generator/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0684092-0873-439E-8448-D5AC4EE8D8D4}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67A28E9-E1B2-474C-8E84-BE487898BEB2}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1800" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +431,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,11 +465,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/Matlab/Shapes.xlsx
+++ b/Matlab/Shapes.xlsx
@@ -8,18 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S3/TeP/Mecanizado/Automatic_gcode_Generator/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67A28E9-E1B2-474C-8E84-BE487898BEB2}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3483EBD-93E0-4EF2-B36F-69F9BABBA940}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3690" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -27,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ORIENTACION</t>
+    <t>N_LADOS</t>
   </si>
   <si>
-    <t>N_LADOS</t>
+    <t>LONGITUD_LADO</t>
   </si>
   <si>
     <t>CENTRO_X</t>
@@ -39,14 +48,14 @@
     <t>CENTRO_Y</t>
   </si>
   <si>
-    <t>LONGITUD_LADO</t>
+    <t>ORIENTACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +70,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +89,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,10 +111,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis3" xfId="1" builtinId="38"/>
@@ -374,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +416,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -403,93 +428,525 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14.33</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="C3" s="4">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.4569999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14.33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34.25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15.75</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B8" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15.75</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15.75</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14.33</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.4569999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="C11" s="4">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
+      <c r="C12" s="5">
+        <v>33.131999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44.542999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>35.67</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>34.25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34.25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C16" s="4">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>33.131999999999998</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>34.25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>35.67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14.33</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="C20" s="4">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44.542999999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>35.67</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009E62D20F74FF6C4FB5C55772FB39888E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="695c9c51f87bd49a81dc99a54eb2ca84">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32bf8453-3231-42b2-b774-04f271dadc4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf2258ee2e9e312962c72cd158ce1039" ns2:_="">
+    <xsd:import namespace="32bf8453-3231-42b2-b774-04f271dadc4a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32bf8453-3231-42b2-b774-04f271dadc4a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D119CDF5-7807-43C3-8399-23C0F2B433F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0877E4C-1BE2-4A4F-8306-DFDD3F199CAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="32bf8453-3231-42b2-b774-04f271dadc4a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D7A352-1CDB-4915-B77F-07EA27F763F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Matlab/Shapes.xlsx
+++ b/Matlab/Shapes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S3/TeP/Mecanizado/Automatic_gcode_Generator/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3483EBD-93E0-4EF2-B36F-69F9BABBA940}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E65347-3153-4C07-8D99-008D3AAFE16A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3690" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -111,13 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis3" xfId="1" builtinId="38"/>
@@ -402,7 +399,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,195 +429,195 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>14.33</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>6.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
         <v>5.75</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>25</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="C10" s="2">
         <v>5.4569999999999999</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>35.659999999999997</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>14.33</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>34.25</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C11" s="2">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="D11" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
-        <v>16.867999999999999</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>14.33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5.4569999999999999</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
         <v>25</v>
       </c>
-      <c r="E10" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>16.867999999999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>33.131999999999998</v>
-      </c>
-      <c r="D12" s="4">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>5.75</v>
       </c>
-      <c r="C13" s="3">
-        <v>44.542999999999999</v>
+      <c r="C13" s="2">
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
@@ -630,136 +627,136 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <v>43.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>35.67</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>5.5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>34.25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>34.25</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>33.131999999999998</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>5.5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>15.75</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>34.25</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
         <v>6.5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>35.67</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
         <v>14.33</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>43.5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
         <v>5.75</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>25</v>
       </c>
-      <c r="D20" s="5">
-        <v>44.542999999999999</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="2">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
         <v>35.67</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>43.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>30</v>
       </c>
     </row>

--- a/Matlab/Shapes.xlsx
+++ b/Matlab/Shapes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S3/TeP/Mecanizado/Automatic_gcode_Generator/Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive - Universidad Politécnica de Madrid\Escritorio\UPM\2o\TeP\Trabajo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E65347-3153-4C07-8D99-008D3AAFE16A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5591B4-06DB-4AFC-8EDD-49E6849F09E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>N_LADOS</t>
+    <t>ORIENTACION</t>
   </si>
   <si>
-    <t>LONGITUD_LADO</t>
+    <t>N_LADOS</t>
   </si>
   <si>
     <t>CENTRO_X</t>
@@ -48,14 +48,14 @@
     <t>CENTRO_Y</t>
   </si>
   <si>
-    <t>ORIENTACION</t>
+    <t>LONGITUD_LADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,15 +70,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,12 +82,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,10 +101,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20% - Énfasis3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,27 +383,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -425,339 +412,286 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="C2">
+        <v>-17.643000000000001</v>
+      </c>
+      <c r="D2">
+        <v>7.694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="C3">
+        <v>-8.3650000000000002</v>
+      </c>
+      <c r="D3">
+        <v>17.754000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14.33</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>35.659999999999997</v>
+        <v>-11.397</v>
       </c>
       <c r="D4" s="2">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>14.33</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-6.6749999999999998</v>
+      </c>
+      <c r="D5">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="E5">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>34.25</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>15.75</v>
+        <v>11.397</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="C7">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="D7">
+        <v>17.754000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="C8">
+        <v>17.643000000000001</v>
+      </c>
+      <c r="D8">
+        <v>7.694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="D9">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15.75</v>
-      </c>
-      <c r="D8" s="2">
-        <v>15.75</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11.397</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="C11">
+        <v>17.643000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-7.694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>14.33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.4569999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>16.867999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="C12">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="D12">
+        <v>-17.754000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="D13">
+        <v>-6.6749999999999998</v>
+      </c>
+      <c r="E13">
+        <f>180-45</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-11.397</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>35.67</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B15">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="C15">
+        <v>-8.3650000000000002</v>
+      </c>
+      <c r="D15">
+        <v>-17.754000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="C16">
+        <v>-17.643000000000001</v>
+      </c>
+      <c r="D16">
+        <v>-7.694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>-6.6749999999999998</v>
+      </c>
+      <c r="D17">
+        <v>-6.6749999999999998</v>
+      </c>
+      <c r="E17">
+        <f>180+45</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>34.25</v>
-      </c>
-      <c r="D15" s="2">
-        <v>34.25</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>33.131999999999998</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15.75</v>
-      </c>
-      <c r="D17" s="2">
-        <v>34.25</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>8.9969999999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>35.67</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14.33</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="C20" s="2">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>35.67</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
@@ -767,18 +701,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009E62D20F74FF6C4FB5C55772FB39888E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="695c9c51f87bd49a81dc99a54eb2ca84">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32bf8453-3231-42b2-b774-04f271dadc4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf2258ee2e9e312962c72cd158ce1039" ns2:_="">
-    <xsd:import namespace="32bf8453-3231-42b2-b774-04f271dadc4a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F1CB9EC4EE38AE4897DD5954BCC9045F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="93b12c811a8d130bb867a40358ab9092">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a0275cb-b4b2-47ff-9985-30c50e1ff7a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4daf86747495f70f308b485dd825d066" ns2:_="">
+    <xsd:import namespace="0a0275cb-b4b2-47ff-9985-30c50e1ff7a0"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -787,6 +712,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -794,7 +723,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32bf8453-3231-42b2-b774-04f271dadc4a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0a0275cb-b4b2-47ff-9985-30c50e1ff7a0" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -805,6 +734,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -907,6 +858,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -914,36 +874,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D119CDF5-7807-43C3-8399-23C0F2B433F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E082188E-927D-4CE5-9070-0E848A09E4CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0877E4C-1BE2-4A4F-8306-DFDD3F199CAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="32bf8453-3231-42b2-b774-04f271dadc4a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC34C3DF-A00F-4298-BE20-64B48F8D1F3A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D7A352-1CDB-4915-B77F-07EA27F763F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F84FB75F-B09D-4750-B68A-85D511DE49B0}"/>
 </file>